--- a/Code/Results/Cases/Case_2_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50541744284522</v>
+        <v>11.78905764943711</v>
       </c>
       <c r="C2">
-        <v>7.120884086123082</v>
+        <v>10.55829164071756</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.505276865206019</v>
+        <v>12.61367878060711</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>19.35568473691513</v>
+        <v>28.40749130716947</v>
       </c>
       <c r="H2">
-        <v>8.510116699652261</v>
+        <v>14.35126869846886</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.71804605976153</v>
+        <v>8.191245009130462</v>
       </c>
       <c r="L2">
-        <v>6.697100403432839</v>
+        <v>9.486424795009569</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.36092712410493</v>
+        <v>18.6942790829866</v>
       </c>
       <c r="O2">
-        <v>13.418809579683</v>
+        <v>21.76958335657832</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.5999774708936</v>
+        <v>11.53588287986293</v>
       </c>
       <c r="C3">
-        <v>7.194227440513901</v>
+        <v>10.58702842652663</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.360637259928355</v>
+        <v>12.6241952496168</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>19.36462538604432</v>
+        <v>28.52728179322251</v>
       </c>
       <c r="H3">
-        <v>8.603355924379461</v>
+        <v>14.39895615079811</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.14588554123451</v>
+        <v>8.008763643200597</v>
       </c>
       <c r="L3">
-        <v>6.494284267046361</v>
+        <v>9.470397692603806</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.51935502022159</v>
+        <v>18.74600999576404</v>
       </c>
       <c r="O3">
-        <v>13.54074128165769</v>
+        <v>21.85451155769577</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.01048500201106</v>
+        <v>11.37940854969903</v>
       </c>
       <c r="C4">
-        <v>7.241105779808003</v>
+        <v>10.60567835477882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.275862245677763</v>
+        <v>12.63308338984205</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>19.39290780532036</v>
+        <v>28.608761228737</v>
       </c>
       <c r="H4">
-        <v>8.664851836786545</v>
+        <v>14.43018108378491</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.77688482973482</v>
+        <v>7.895464122005668</v>
       </c>
       <c r="L4">
-        <v>6.369574611632784</v>
+        <v>9.46211421111745</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.61952652725181</v>
+        <v>18.7794128716341</v>
       </c>
       <c r="O4">
-        <v>13.62559395802572</v>
+        <v>21.91064405734653</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.76178378454327</v>
+        <v>11.31547652460219</v>
       </c>
       <c r="C5">
-        <v>7.260674586720675</v>
+        <v>10.61353183639095</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.242357318212507</v>
+        <v>12.63731707673156</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>19.4099218678673</v>
+        <v>28.64395136121408</v>
       </c>
       <c r="H5">
-        <v>8.690952839318291</v>
+        <v>14.44339498853765</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.622137795236659</v>
+        <v>7.849040431043247</v>
       </c>
       <c r="L5">
-        <v>6.318784140578054</v>
+        <v>9.459133031048196</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.66108256310525</v>
+        <v>18.79343821451918</v>
       </c>
       <c r="O5">
-        <v>13.66258672026616</v>
+        <v>21.93452040855712</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.71997384330806</v>
+        <v>11.30485323230102</v>
       </c>
       <c r="C6">
-        <v>7.263952132739325</v>
+        <v>10.61485123037962</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.236857491217716</v>
+        <v>12.63805703011303</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>19.41307134673772</v>
+        <v>28.64991443768193</v>
       </c>
       <c r="H6">
-        <v>8.695349007982408</v>
+        <v>14.44561872613269</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.596180316724478</v>
+        <v>7.841318390682657</v>
       </c>
       <c r="L6">
-        <v>6.310354481827082</v>
+        <v>9.458661906882314</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.66802753149734</v>
+        <v>18.79579211096286</v>
       </c>
       <c r="O6">
-        <v>13.66887243918134</v>
+        <v>21.93854555740862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.00716531439359</v>
+        <v>11.37854689707079</v>
       </c>
       <c r="C7">
-        <v>7.241367804719248</v>
+        <v>10.60578324234413</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.275406135598152</v>
+        <v>12.63313800969144</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>19.39311536387217</v>
+        <v>28.60922778069388</v>
       </c>
       <c r="H7">
-        <v>8.66519966359607</v>
+        <v>14.43035730853105</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.774815467899582</v>
+        <v>7.894838976869849</v>
       </c>
       <c r="L7">
-        <v>6.368889411343515</v>
+        <v>9.462072405405769</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.62008397972013</v>
+        <v>18.77960034709158</v>
       </c>
       <c r="O7">
-        <v>13.62608320297203</v>
+        <v>21.91096200611712</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.20015923897405</v>
+        <v>11.70202860747163</v>
       </c>
       <c r="C8">
-        <v>7.145790795021069</v>
+        <v>10.56799180709182</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.454584966357688</v>
+        <v>12.61680061007226</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>19.35389283215818</v>
+        <v>28.44714562994761</v>
       </c>
       <c r="H8">
-        <v>8.541367401811639</v>
+        <v>14.36730801809504</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.52447535777504</v>
+        <v>8.128622622024505</v>
       </c>
       <c r="L8">
-        <v>6.627250368626698</v>
+        <v>9.480577223876868</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.41495623302732</v>
+        <v>18.71177616862808</v>
       </c>
       <c r="O8">
-        <v>13.45871962798611</v>
+        <v>21.79803897366853</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.2753452622432</v>
+        <v>12.32445706161763</v>
       </c>
       <c r="C9">
-        <v>6.972937967566681</v>
+        <v>10.50183041386077</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.836648640218463</v>
+        <v>12.60402663818918</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>19.46825996057556</v>
+        <v>28.19250337593389</v>
       </c>
       <c r="H9">
-        <v>8.333536386530056</v>
+        <v>14.25907604800665</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.85180779213825</v>
+        <v>8.574504339912071</v>
       </c>
       <c r="L9">
-        <v>7.12940764174638</v>
+        <v>9.529085878854625</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.03535802065151</v>
+        <v>18.5917372526017</v>
       </c>
       <c r="O9">
-        <v>13.21429868039885</v>
+        <v>21.60824718399774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.64157027369133</v>
+        <v>12.76967693100752</v>
       </c>
       <c r="C10">
-        <v>6.854735186495277</v>
+        <v>10.45802465453402</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.134188005406067</v>
+        <v>12.60634046502297</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>19.68233483349397</v>
+        <v>28.0443418757775</v>
       </c>
       <c r="H10">
-        <v>8.204146436274302</v>
+        <v>14.18891977496938</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.73775289871575</v>
+        <v>8.891151576466024</v>
       </c>
       <c r="L10">
-        <v>7.491881029607196</v>
+        <v>9.571978622516404</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.76983052403197</v>
+        <v>18.51138070215102</v>
       </c>
       <c r="O10">
-        <v>13.09235413557338</v>
+        <v>21.48813018075391</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.22929242902176</v>
+        <v>12.96866399138912</v>
       </c>
       <c r="C11">
-        <v>6.802852906420319</v>
+        <v>10.43913032445834</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.272787777146272</v>
+        <v>12.60991934021326</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>19.81054693405919</v>
+        <v>27.98547133181585</v>
       </c>
       <c r="H11">
-        <v>8.150822480605603</v>
+        <v>14.15903030607067</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.12116342784291</v>
+        <v>9.032197960916269</v>
       </c>
       <c r="L11">
-        <v>7.654703451876601</v>
+        <v>9.593019343002997</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.65184347013391</v>
+        <v>18.47651173861368</v>
       </c>
       <c r="O11">
-        <v>13.05089731251547</v>
+        <v>21.4376880723641</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.44703786302125</v>
+        <v>13.04343403099317</v>
       </c>
       <c r="C12">
-        <v>6.78347691404343</v>
+        <v>10.43212342845538</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.325704267641363</v>
+        <v>12.61163624514774</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>19.86371891145487</v>
+        <v>27.96441121752696</v>
       </c>
       <c r="H12">
-        <v>8.131470083686883</v>
+        <v>14.14800269666661</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.26352062296093</v>
+        <v>9.085129717031757</v>
       </c>
       <c r="L12">
-        <v>7.716014478072283</v>
+        <v>9.601202295476597</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.60756098758194</v>
+        <v>18.46354912113785</v>
       </c>
       <c r="O12">
-        <v>13.03734438321533</v>
+        <v>21.41919151323565</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.40035577940441</v>
+        <v>13.02735794820072</v>
       </c>
       <c r="C13">
-        <v>6.787637854075254</v>
+        <v>10.4336259168373</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.314289100940105</v>
+        <v>12.61125042218432</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>19.85205907405718</v>
+        <v>27.96889195783295</v>
       </c>
       <c r="H13">
-        <v>8.135599860132926</v>
+        <v>14.15036475723906</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.23298752842548</v>
+        <v>9.073751971711406</v>
       </c>
       <c r="L13">
-        <v>7.702826166297502</v>
+        <v>9.599430449852688</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.61708046931954</v>
+        <v>18.46633012588632</v>
       </c>
       <c r="O13">
-        <v>13.04016569149885</v>
+        <v>21.42314816701254</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.24730265741489</v>
+        <v>12.97482742835409</v>
       </c>
       <c r="C14">
-        <v>6.80125341128793</v>
+        <v>10.43855090056599</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.277132793403844</v>
+        <v>12.61005335286323</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>19.81482780800105</v>
+        <v>27.98371395891011</v>
       </c>
       <c r="H14">
-        <v>8.149213242931094</v>
+        <v>14.15811722996228</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.13293204283874</v>
+        <v>9.03656256143582</v>
       </c>
       <c r="L14">
-        <v>7.659754745333849</v>
+        <v>9.593688271502335</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.64819240948714</v>
+        <v>18.47544046125477</v>
       </c>
       <c r="O14">
-        <v>13.04973853710191</v>
+        <v>21.43615422382242</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.15292787299184</v>
+        <v>12.94257311150344</v>
       </c>
       <c r="C15">
-        <v>6.80962856207864</v>
+        <v>10.44158684896608</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.254428683098425</v>
+        <v>12.60936716044655</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>19.79262960223418</v>
+        <v>27.99295360631278</v>
       </c>
       <c r="H15">
-        <v>8.157662623311419</v>
+        <v>14.1629037161905</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.0712761135756</v>
+        <v>9.013719161617399</v>
       </c>
       <c r="L15">
-        <v>7.633325812783849</v>
+        <v>9.590198919951447</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.66730084346098</v>
+        <v>18.48105222927533</v>
       </c>
       <c r="O15">
-        <v>13.0558855765677</v>
+        <v>21.44419959402199</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.60248536158389</v>
+        <v>12.7565950278155</v>
       </c>
       <c r="C16">
-        <v>6.858163742207442</v>
+        <v>10.45928018240049</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.125192500077128</v>
+        <v>12.60615728001281</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>19.67459269348331</v>
+        <v>28.04836138448792</v>
       </c>
       <c r="H16">
-        <v>8.207746379907427</v>
+        <v>14.1909138433165</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.71230030921173</v>
+        <v>8.881869322476355</v>
       </c>
       <c r="L16">
-        <v>7.481194264100928</v>
+        <v>9.570633940307637</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.77759710168908</v>
+        <v>18.51369331380212</v>
       </c>
       <c r="O16">
-        <v>13.09535652621522</v>
+        <v>21.49151127339627</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.25618677126911</v>
+        <v>12.64154244388737</v>
       </c>
       <c r="C17">
-        <v>6.88842157770011</v>
+        <v>10.47039865955187</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.04671672111516</v>
+        <v>12.60483409428665</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>19.61021622849697</v>
+        <v>28.08454138793433</v>
       </c>
       <c r="H17">
-        <v>8.239919431530064</v>
+        <v>14.20861557191046</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.48704666376316</v>
+        <v>8.8001803301704</v>
       </c>
       <c r="L17">
-        <v>7.387300014311626</v>
+        <v>9.55901983070572</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.84597350070114</v>
+        <v>18.53414865566373</v>
       </c>
       <c r="O17">
-        <v>13.1232519791942</v>
+        <v>21.5216117126798</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.05382264251683</v>
+        <v>12.57503750884102</v>
       </c>
       <c r="C18">
-        <v>6.906002909311804</v>
+        <v>10.47689099120718</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.001887281276561</v>
+        <v>12.60431093231264</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>19.57608020355512</v>
+        <v>28.10615357936029</v>
       </c>
       <c r="H18">
-        <v>8.258942768934189</v>
+        <v>14.2189877552895</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.35564113119947</v>
+        <v>8.752915458122327</v>
       </c>
       <c r="L18">
-        <v>7.333102360154138</v>
+        <v>9.552483867391846</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.88556596849369</v>
+        <v>18.54607273946461</v>
       </c>
       <c r="O18">
-        <v>13.14060791656176</v>
+        <v>21.53931993471378</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.98475768602527</v>
+        <v>12.55246572878155</v>
       </c>
       <c r="C19">
-        <v>6.911986217261632</v>
+        <v>10.47910590864837</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.986762749176659</v>
+        <v>12.60417470349118</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>19.56501294368379</v>
+        <v>28.11360870956384</v>
       </c>
       <c r="H19">
-        <v>8.265471464067227</v>
+        <v>14.22253234656867</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.31083298110934</v>
+        <v>8.73686590702707</v>
       </c>
       <c r="L19">
-        <v>7.314720548416346</v>
+        <v>9.550295796773085</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.89901686869448</v>
+        <v>18.55013731567616</v>
       </c>
       <c r="O19">
-        <v>13.14670563888523</v>
+        <v>21.54538349222822</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.29337988104601</v>
+        <v>12.65382465234845</v>
       </c>
       <c r="C20">
-        <v>6.885182182198495</v>
+        <v>10.46920501507312</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.055039009017781</v>
+        <v>12.60495033892959</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>19.61676852224454</v>
+        <v>28.08060687071223</v>
       </c>
       <c r="H20">
-        <v>8.23644060952542</v>
+        <v>14.20671146675558</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.51121642111428</v>
+        <v>8.808905553969572</v>
       </c>
       <c r="L20">
-        <v>7.397315478848286</v>
+        <v>9.560241283903165</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.83866742271682</v>
+        <v>18.53195472997541</v>
       </c>
       <c r="O20">
-        <v>13.12014582463127</v>
+        <v>21.51836655691856</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.29238830492748</v>
+        <v>12.99027326250536</v>
       </c>
       <c r="C21">
-        <v>6.797246851844433</v>
+        <v>10.43710030205363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.288035059041668</v>
+        <v>12.61039515978439</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>19.82563672266167</v>
+        <v>27.97932686798544</v>
       </c>
       <c r="H21">
-        <v>8.145191490242061</v>
+        <v>14.15583224866138</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.16239768699692</v>
+        <v>9.04749937239834</v>
       </c>
       <c r="L21">
-        <v>7.672415623212935</v>
+        <v>9.595369082867231</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.63904336264718</v>
+        <v>18.47275798763984</v>
       </c>
       <c r="O21">
-        <v>13.0468674626845</v>
+        <v>21.43231760942979</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.91727060950597</v>
+        <v>13.20673931264</v>
       </c>
       <c r="C22">
-        <v>6.741353564419632</v>
+        <v>10.41698027059244</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.44281266529242</v>
+        <v>12.61606079353401</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>19.98915143064988</v>
+        <v>27.92032348582237</v>
       </c>
       <c r="H22">
-        <v>8.090475349039446</v>
+        <v>14.12427509962459</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.57147407629133</v>
+        <v>9.200619713977511</v>
       </c>
       <c r="L22">
-        <v>7.85017262373839</v>
+        <v>9.619579726821383</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.51088678843632</v>
+        <v>18.43547675146809</v>
       </c>
       <c r="O22">
-        <v>13.0115469084506</v>
+        <v>21.37960512944989</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.58630845656376</v>
+        <v>13.09154303772231</v>
       </c>
       <c r="C23">
-        <v>6.771040781016284</v>
+        <v>10.42764000561199</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.359987411530547</v>
+        <v>12.61284473125791</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>19.89935230060302</v>
+        <v>27.95115486309703</v>
       </c>
       <c r="H23">
-        <v>8.119212688228091</v>
+        <v>14.14096271556632</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.35465503562103</v>
+        <v>9.119169085189293</v>
       </c>
       <c r="L23">
-        <v>7.755501312750335</v>
+        <v>9.606544994483542</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.5790770837461</v>
+        <v>18.45524597512647</v>
       </c>
       <c r="O23">
-        <v>13.02920378166927</v>
+        <v>21.40741590454564</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.27657507251286</v>
+        <v>12.64827298065627</v>
       </c>
       <c r="C24">
-        <v>6.886646134424365</v>
+        <v>10.46974434967953</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.051275604995769</v>
+        <v>12.60489704465835</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>19.61379729015183</v>
+        <v>28.08238313767583</v>
       </c>
       <c r="H24">
-        <v>8.238011747943471</v>
+        <v>14.20757170456407</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.50029520401408</v>
+        <v>8.804961813444301</v>
       </c>
       <c r="L24">
-        <v>7.392788158214987</v>
+        <v>9.559688624933026</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.84196962182796</v>
+        <v>18.53294609275094</v>
       </c>
       <c r="O24">
-        <v>13.12154602019254</v>
+        <v>21.51983243634385</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.7419683381048</v>
+        <v>12.15786284189264</v>
       </c>
       <c r="C25">
-        <v>7.018148925913524</v>
+        <v>10.5188823548199</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.730193010919564</v>
+        <v>12.6054237626461</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>19.4154074831088</v>
+        <v>28.25458305792943</v>
       </c>
       <c r="H25">
-        <v>8.38581987403338</v>
+        <v>14.28670944704898</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.5082855048689</v>
+        <v>8.455578197163934</v>
       </c>
       <c r="L25">
-        <v>6.994447222678324</v>
+        <v>9.514673919812648</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.13567071895659</v>
+        <v>18.62283006471985</v>
       </c>
       <c r="O25">
-        <v>13.27079319046056</v>
+        <v>21.65619966883991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_237/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_237/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.78905764943711</v>
+        <v>13.5054174428452</v>
       </c>
       <c r="C2">
-        <v>10.55829164071756</v>
+        <v>7.120884086123218</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.61367878060711</v>
+        <v>8.505276865206012</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>28.40749130716947</v>
+        <v>19.35568473691502</v>
       </c>
       <c r="H2">
-        <v>14.35126869846886</v>
+        <v>8.510116699652324</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.191245009130462</v>
+        <v>10.71804605976154</v>
       </c>
       <c r="L2">
-        <v>9.486424795009569</v>
+        <v>6.6971004034328</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.6942790829866</v>
+        <v>12.36092712410493</v>
       </c>
       <c r="O2">
-        <v>21.76958335657832</v>
+        <v>13.418809579683</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.53588287986293</v>
+        <v>12.59997747089359</v>
       </c>
       <c r="C3">
-        <v>10.58702842652663</v>
+        <v>7.194227440514034</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.6241952496168</v>
+        <v>8.360637259928449</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>28.52728179322251</v>
+        <v>19.3646253860443</v>
       </c>
       <c r="H3">
-        <v>14.39895615079811</v>
+        <v>8.603355924379391</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.008763643200597</v>
+        <v>10.14588554123455</v>
       </c>
       <c r="L3">
-        <v>9.470397692603806</v>
+        <v>6.494284267046376</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.74600999576404</v>
+        <v>12.51935502022155</v>
       </c>
       <c r="O3">
-        <v>21.85451155769577</v>
+        <v>13.54074128165763</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.37940854969903</v>
+        <v>12.01048500201106</v>
       </c>
       <c r="C4">
-        <v>10.60567835477882</v>
+        <v>7.241105779807739</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.63308338984205</v>
+        <v>8.27586224567761</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>28.608761228737</v>
+        <v>19.3929078053203</v>
       </c>
       <c r="H4">
-        <v>14.43018108378491</v>
+        <v>8.664851836786418</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.895464122005668</v>
+        <v>9.776884829734827</v>
       </c>
       <c r="L4">
-        <v>9.46211421111745</v>
+        <v>6.369574611632743</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.7794128716341</v>
+        <v>12.61952652725178</v>
       </c>
       <c r="O4">
-        <v>21.91064405734653</v>
+        <v>13.62559395802564</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.31547652460219</v>
+        <v>11.76178378454325</v>
       </c>
       <c r="C5">
-        <v>10.61353183639095</v>
+        <v>7.260674586720675</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.63731707673156</v>
+        <v>8.242357318212502</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>28.64395136121408</v>
+        <v>19.40992186786728</v>
       </c>
       <c r="H5">
-        <v>14.44339498853765</v>
+        <v>8.690952839318294</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.849040431043247</v>
+        <v>9.622137795236602</v>
       </c>
       <c r="L5">
-        <v>9.459133031048196</v>
+        <v>6.318784140578057</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.79343821451918</v>
+        <v>12.66108256310522</v>
       </c>
       <c r="O5">
-        <v>21.93452040855712</v>
+        <v>13.66258672026617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.30485323230102</v>
+        <v>11.719973843308</v>
       </c>
       <c r="C6">
-        <v>10.61485123037962</v>
+        <v>7.263952132739325</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.63805703011303</v>
+        <v>8.236857491217778</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>28.64991443768193</v>
+        <v>19.4130713467379</v>
       </c>
       <c r="H6">
-        <v>14.44561872613269</v>
+        <v>8.695349007982403</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.841318390682657</v>
+        <v>9.596180316724441</v>
       </c>
       <c r="L6">
-        <v>9.458661906882314</v>
+        <v>6.310354481827127</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.79579211096286</v>
+        <v>12.66802753149738</v>
       </c>
       <c r="O6">
-        <v>21.93854555740862</v>
+        <v>13.66887243918141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.37854689707079</v>
+        <v>12.00716531439361</v>
       </c>
       <c r="C7">
-        <v>10.60578324234413</v>
+        <v>7.241367804719655</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.63313800969144</v>
+        <v>8.275406135598251</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.60922778069388</v>
+        <v>19.39311536387194</v>
       </c>
       <c r="H7">
-        <v>14.43035730853105</v>
+        <v>8.665199663596006</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.894838976869849</v>
+        <v>9.774815467899675</v>
       </c>
       <c r="L7">
-        <v>9.462072405405769</v>
+        <v>6.368889411343511</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.77960034709158</v>
+        <v>12.62008397972013</v>
       </c>
       <c r="O7">
-        <v>21.91096200611712</v>
+        <v>13.62608320297187</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.70202860747163</v>
+        <v>13.20015923897404</v>
       </c>
       <c r="C8">
-        <v>10.56799180709182</v>
+        <v>7.145790795021068</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.61680061007226</v>
+        <v>8.454584966357697</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>28.44714562994761</v>
+        <v>19.35389283215813</v>
       </c>
       <c r="H8">
-        <v>14.36730801809504</v>
+        <v>8.541367401811586</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.128622622024505</v>
+        <v>10.52447535777503</v>
       </c>
       <c r="L8">
-        <v>9.480577223876868</v>
+        <v>6.627250368626742</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.71177616862808</v>
+        <v>12.41495623302725</v>
       </c>
       <c r="O8">
-        <v>21.79803897366853</v>
+        <v>13.45871962798602</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.32445706161763</v>
+        <v>15.27534526224322</v>
       </c>
       <c r="C9">
-        <v>10.50183041386077</v>
+        <v>6.972937967566541</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.60402663818918</v>
+        <v>8.836648640218424</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>28.19250337593389</v>
+        <v>19.46825996057576</v>
       </c>
       <c r="H9">
-        <v>14.25907604800665</v>
+        <v>8.333536386530058</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.574504339912071</v>
+        <v>11.85180779213821</v>
       </c>
       <c r="L9">
-        <v>9.529085878854625</v>
+        <v>7.129407641746412</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.5917372526017</v>
+        <v>12.03535802065154</v>
       </c>
       <c r="O9">
-        <v>21.60824718399774</v>
+        <v>13.21429868039895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.76967693100752</v>
+        <v>16.64157027369133</v>
       </c>
       <c r="C10">
-        <v>10.45802465453402</v>
+        <v>6.854735186495012</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.60634046502297</v>
+        <v>9.134188005406072</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>28.0443418757775</v>
+        <v>19.6823348334941</v>
       </c>
       <c r="H10">
-        <v>14.18891977496938</v>
+        <v>8.204146436274289</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.891151576466024</v>
+        <v>12.73775289871575</v>
       </c>
       <c r="L10">
-        <v>9.571978622516404</v>
+        <v>7.491881029607208</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.51138070215102</v>
+        <v>11.76983052403201</v>
       </c>
       <c r="O10">
-        <v>21.48813018075391</v>
+        <v>13.09235413557344</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.96866399138912</v>
+        <v>17.22929242902176</v>
       </c>
       <c r="C11">
-        <v>10.43913032445834</v>
+        <v>6.802852906420184</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.60991934021326</v>
+        <v>9.272787777146229</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>27.98547133181585</v>
+        <v>19.81054693405938</v>
       </c>
       <c r="H11">
-        <v>14.15903030607067</v>
+        <v>8.150822480605656</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.032197960916269</v>
+        <v>13.12116342784284</v>
       </c>
       <c r="L11">
-        <v>9.593019343002997</v>
+        <v>7.654703451876594</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.47651173861368</v>
+        <v>11.65184347013395</v>
       </c>
       <c r="O11">
-        <v>21.4376880723641</v>
+        <v>13.05089731251559</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.04343403099317</v>
+        <v>17.4470378630213</v>
       </c>
       <c r="C12">
-        <v>10.43212342845538</v>
+        <v>6.783476914043307</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.61163624514774</v>
+        <v>9.325704267641372</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>27.96441121752696</v>
+        <v>19.86371891145451</v>
       </c>
       <c r="H12">
-        <v>14.14800269666661</v>
+        <v>8.131470083686773</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.085129717031757</v>
+        <v>13.26352062296103</v>
       </c>
       <c r="L12">
-        <v>9.601202295476597</v>
+        <v>7.716014478072284</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.46354912113785</v>
+        <v>11.60756098758184</v>
       </c>
       <c r="O12">
-        <v>21.41919151323565</v>
+        <v>13.03734438321509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.02735794820072</v>
+        <v>17.40035577940439</v>
       </c>
       <c r="C13">
-        <v>10.4336259168373</v>
+        <v>6.787637854075393</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.61125042218432</v>
+        <v>9.314289100940089</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>27.96889195783295</v>
+        <v>19.85205907405718</v>
       </c>
       <c r="H13">
-        <v>14.15036475723906</v>
+        <v>8.135599860132926</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.073751971711406</v>
+        <v>13.23298752842551</v>
       </c>
       <c r="L13">
-        <v>9.599430449852688</v>
+        <v>7.702826166297469</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.46633012588632</v>
+        <v>11.61708046931957</v>
       </c>
       <c r="O13">
-        <v>21.42314816701254</v>
+        <v>13.04016569149885</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.97482742835409</v>
+        <v>17.2473026574149</v>
       </c>
       <c r="C14">
-        <v>10.43855090056599</v>
+        <v>6.801253411287793</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.61005335286323</v>
+        <v>9.277132793403855</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>27.98371395891011</v>
+        <v>19.814827808001</v>
       </c>
       <c r="H14">
-        <v>14.15811722996228</v>
+        <v>8.149213242931031</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.03656256143582</v>
+        <v>13.13293204283877</v>
       </c>
       <c r="L14">
-        <v>9.593688271502335</v>
+        <v>7.659754745333849</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.47544046125477</v>
+        <v>11.64819240948714</v>
       </c>
       <c r="O14">
-        <v>21.43615422382242</v>
+        <v>13.04973853710185</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.94257311150344</v>
+        <v>17.15292787299183</v>
       </c>
       <c r="C15">
-        <v>10.44158684896608</v>
+        <v>6.809628562078777</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.60936716044655</v>
+        <v>9.254428683098439</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>27.99295360631278</v>
+        <v>19.79262960223417</v>
       </c>
       <c r="H15">
-        <v>14.1629037161905</v>
+        <v>8.157662623311362</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.013719161617399</v>
+        <v>13.07127611357562</v>
       </c>
       <c r="L15">
-        <v>9.590198919951447</v>
+        <v>7.6333258127838</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.48105222927533</v>
+        <v>11.66730084346098</v>
       </c>
       <c r="O15">
-        <v>21.44419959402199</v>
+        <v>13.05588557656767</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.7565950278155</v>
+        <v>16.60248536158392</v>
       </c>
       <c r="C16">
-        <v>10.45928018240049</v>
+        <v>6.858163742207574</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.60615728001281</v>
+        <v>9.125192500077182</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>28.04836138448792</v>
+        <v>19.67459269348319</v>
       </c>
       <c r="H16">
-        <v>14.1909138433165</v>
+        <v>8.20774637990743</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.881869322476355</v>
+        <v>12.71230030921178</v>
       </c>
       <c r="L16">
-        <v>9.570633940307637</v>
+        <v>7.481194264100911</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.51369331380212</v>
+        <v>11.77759710168908</v>
       </c>
       <c r="O16">
-        <v>21.49151127339627</v>
+        <v>13.09535652621516</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.64154244388737</v>
+        <v>16.25618677126908</v>
       </c>
       <c r="C17">
-        <v>10.47039865955187</v>
+        <v>6.888421577700243</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.60483409428665</v>
+        <v>9.046716721115164</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>28.08454138793433</v>
+        <v>19.61021622849703</v>
       </c>
       <c r="H17">
-        <v>14.20861557191046</v>
+        <v>8.239919431530067</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.8001803301704</v>
+        <v>12.48704666376317</v>
       </c>
       <c r="L17">
-        <v>9.55901983070572</v>
+        <v>7.387300014311612</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.53414865566373</v>
+        <v>11.84597350070114</v>
       </c>
       <c r="O17">
-        <v>21.5216117126798</v>
+        <v>13.12325197919421</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.57503750884102</v>
+        <v>16.05382264251687</v>
       </c>
       <c r="C18">
-        <v>10.47689099120718</v>
+        <v>6.906002909311801</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.60431093231264</v>
+        <v>9.001887281276604</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>28.10615357936029</v>
+        <v>19.57608020355494</v>
       </c>
       <c r="H18">
-        <v>14.2189877552895</v>
+        <v>8.258942768934132</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.752915458122327</v>
+        <v>12.35564113119952</v>
       </c>
       <c r="L18">
-        <v>9.552483867391846</v>
+        <v>7.333102360154135</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.54607273946461</v>
+        <v>11.8855659684936</v>
       </c>
       <c r="O18">
-        <v>21.53931993471378</v>
+        <v>13.14060791656166</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.55246572878155</v>
+        <v>15.98475768602531</v>
       </c>
       <c r="C19">
-        <v>10.47910590864837</v>
+        <v>6.911986217261758</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.60417470349118</v>
+        <v>8.986762749176759</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>28.11360870956384</v>
+        <v>19.56501294368367</v>
       </c>
       <c r="H19">
-        <v>14.22253234656867</v>
+        <v>8.265471464067232</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.73686590702707</v>
+        <v>12.31083298110934</v>
       </c>
       <c r="L19">
-        <v>9.550295796773085</v>
+        <v>7.314720548416354</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.55013731567616</v>
+        <v>11.89901686869445</v>
       </c>
       <c r="O19">
-        <v>21.54538349222822</v>
+        <v>13.1467056388852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.65382465234845</v>
+        <v>16.29337988104601</v>
       </c>
       <c r="C20">
-        <v>10.46920501507312</v>
+        <v>6.885182182198498</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.60495033892959</v>
+        <v>9.05503900901771</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>28.08060687071223</v>
+        <v>19.61676852224454</v>
       </c>
       <c r="H20">
-        <v>14.20671146675558</v>
+        <v>8.23644060952525</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.808905553969572</v>
+        <v>12.51121642111424</v>
       </c>
       <c r="L20">
-        <v>9.560241283903165</v>
+        <v>7.397315478848306</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.53195472997541</v>
+        <v>11.83866742271668</v>
       </c>
       <c r="O20">
-        <v>21.51836655691856</v>
+        <v>13.1201458246312</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99027326250536</v>
+        <v>17.29238830492747</v>
       </c>
       <c r="C21">
-        <v>10.43710030205363</v>
+        <v>6.797246851844295</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.61039515978439</v>
+        <v>9.288035059041693</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>27.97932686798544</v>
+        <v>19.82563672266163</v>
       </c>
       <c r="H21">
-        <v>14.15583224866138</v>
+        <v>8.145191490242061</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.04749937239834</v>
+        <v>13.16239768699688</v>
       </c>
       <c r="L21">
-        <v>9.595369082867231</v>
+        <v>7.672415623212952</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.47275798763984</v>
+        <v>11.63904336264712</v>
       </c>
       <c r="O21">
-        <v>21.43231760942979</v>
+        <v>13.04686746268449</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.20673931264</v>
+        <v>17.91727060950594</v>
       </c>
       <c r="C22">
-        <v>10.41698027059244</v>
+        <v>6.741353564419768</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.61606079353401</v>
+        <v>9.442812665292424</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>27.92032348582237</v>
+        <v>19.9891514306499</v>
       </c>
       <c r="H22">
-        <v>14.12427509962459</v>
+        <v>8.090475349039497</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.200619713977511</v>
+        <v>13.57147407629131</v>
       </c>
       <c r="L22">
-        <v>9.619579726821383</v>
+        <v>7.850172623738377</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.43547675146809</v>
+        <v>11.51088678843635</v>
       </c>
       <c r="O22">
-        <v>21.37960512944989</v>
+        <v>13.01154690845062</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.09154303772231</v>
+        <v>17.58630845656375</v>
       </c>
       <c r="C23">
-        <v>10.42764000561199</v>
+        <v>6.771040781016422</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.61284473125791</v>
+        <v>9.359987411530632</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>27.95115486309703</v>
+        <v>19.89935230060297</v>
       </c>
       <c r="H23">
-        <v>14.14096271556632</v>
+        <v>8.119212688228139</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.119169085189293</v>
+        <v>13.35465503562106</v>
       </c>
       <c r="L23">
-        <v>9.606544994483542</v>
+        <v>7.755501312750343</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.45524597512647</v>
+        <v>11.5790770837462</v>
       </c>
       <c r="O23">
-        <v>21.40741590454564</v>
+        <v>13.02920378166932</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.64827298065627</v>
+        <v>16.27657507251287</v>
       </c>
       <c r="C24">
-        <v>10.46974434967953</v>
+        <v>6.886646134424498</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.60489704465835</v>
+        <v>9.051275604995794</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>28.08238313767583</v>
+        <v>19.61379729015179</v>
       </c>
       <c r="H24">
-        <v>14.20757170456407</v>
+        <v>8.238011747943528</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.804961813444301</v>
+        <v>12.50029520401412</v>
       </c>
       <c r="L24">
-        <v>9.559688624933026</v>
+        <v>7.392788158215017</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.53294609275094</v>
+        <v>11.84196962182799</v>
       </c>
       <c r="O24">
-        <v>21.51983243634385</v>
+        <v>13.12154602019256</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.15786284189264</v>
+        <v>14.74196833810486</v>
       </c>
       <c r="C25">
-        <v>10.5188823548199</v>
+        <v>7.018148925913257</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.6054237626461</v>
+        <v>8.730193010919644</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>28.25458305792943</v>
+        <v>19.41540748310884</v>
       </c>
       <c r="H25">
-        <v>14.28670944704898</v>
+        <v>8.38581987403338</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.455578197163934</v>
+        <v>11.50828550486891</v>
       </c>
       <c r="L25">
-        <v>9.514673919812648</v>
+        <v>6.994447222678376</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.62283006471985</v>
+        <v>12.13567071895662</v>
       </c>
       <c r="O25">
-        <v>21.65619966883991</v>
+        <v>13.27079319046057</v>
       </c>
     </row>
   </sheetData>
